--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H2">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I2">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J2">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6236346666666667</v>
+        <v>0.7166333333333333</v>
       </c>
       <c r="N2">
-        <v>1.870904</v>
+        <v>2.1499</v>
       </c>
       <c r="O2">
-        <v>0.31591202707223</v>
+        <v>0.3473413739331278</v>
       </c>
       <c r="P2">
-        <v>0.3439287576880111</v>
+        <v>0.3934369468751236</v>
       </c>
       <c r="Q2">
-        <v>2.946773373668444</v>
+        <v>2.7582593529</v>
       </c>
       <c r="R2">
-        <v>26.520960363016</v>
+        <v>24.8243341761</v>
       </c>
       <c r="S2">
-        <v>0.03705088789282924</v>
+        <v>0.02197422892553018</v>
       </c>
       <c r="T2">
-        <v>0.05560241333748677</v>
+        <v>0.03544179566512565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H3">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I3">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J3">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.331041</v>
       </c>
       <c r="O3">
-        <v>0.05589802221493893</v>
+        <v>0.05348352749811459</v>
       </c>
       <c r="P3">
-        <v>0.0608553511424407</v>
+        <v>0.06058131091236234</v>
       </c>
       <c r="Q3">
-        <v>0.5214071937376668</v>
+        <v>0.424716002811</v>
       </c>
       <c r="R3">
-        <v>4.692664743639</v>
+        <v>3.822444025299</v>
       </c>
       <c r="S3">
-        <v>0.006555848391435415</v>
+        <v>0.00338358561688285</v>
       </c>
       <c r="T3">
-        <v>0.009838387492706713</v>
+        <v>0.005457317772351673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H4">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I4">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J4">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.307547</v>
+        <v>0.4249756666666666</v>
       </c>
       <c r="N4">
-        <v>0.922641</v>
+        <v>1.274927</v>
       </c>
       <c r="O4">
-        <v>0.1557928084872069</v>
+        <v>0.2059792994299459</v>
       </c>
       <c r="P4">
-        <v>0.1696093294589269</v>
+        <v>0.2333147524855392</v>
       </c>
       <c r="Q4">
-        <v>1.453208680004333</v>
+        <v>1.635694368117</v>
       </c>
       <c r="R4">
-        <v>13.078878120039</v>
+        <v>14.721249313053</v>
       </c>
       <c r="S4">
-        <v>0.01827173829139703</v>
+        <v>0.01303108877684516</v>
       </c>
       <c r="T4">
-        <v>0.02742046959336884</v>
+        <v>0.02101758324664015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H5">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I5">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J5">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.48243</v>
+        <v>0.7251799999999999</v>
       </c>
       <c r="N5">
-        <v>0.9648600000000001</v>
+        <v>1.45036</v>
       </c>
       <c r="O5">
-        <v>0.2443825646112082</v>
+        <v>0.3514838144315907</v>
       </c>
       <c r="P5">
-        <v>0.1773704589561273</v>
+        <v>0.2654194196333802</v>
       </c>
       <c r="Q5">
-        <v>2.27955877799</v>
+        <v>2.79115472934</v>
       </c>
       <c r="R5">
-        <v>13.67735266794</v>
+        <v>16.74692837604</v>
       </c>
       <c r="S5">
-        <v>0.02866174829836957</v>
+        <v>0.02223629657037441</v>
       </c>
       <c r="T5">
-        <v>0.02867519901224621</v>
+        <v>0.02390965289588894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.848913</v>
+      </c>
+      <c r="H6">
+        <v>11.546739</v>
+      </c>
+      <c r="I6">
+        <v>0.06326406980171845</v>
+      </c>
+      <c r="J6">
+        <v>0.09008253024181492</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>4.725159666666666</v>
-      </c>
-      <c r="H6">
-        <v>14.175479</v>
-      </c>
-      <c r="I6">
-        <v>0.1172822960752866</v>
-      </c>
-      <c r="J6">
-        <v>0.1616684039777957</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.4501183333333333</v>
+        <v>0.08605999999999998</v>
       </c>
       <c r="N6">
-        <v>1.350355</v>
+        <v>0.25818</v>
       </c>
       <c r="O6">
-        <v>0.2280145776144159</v>
+        <v>0.04171198470722123</v>
       </c>
       <c r="P6">
-        <v>0.2482361027544942</v>
+        <v>0.04724757009359477</v>
       </c>
       <c r="Q6">
-        <v>2.126880993893889</v>
+        <v>0.3312374527799999</v>
       </c>
       <c r="R6">
-        <v>19.141928945045</v>
+        <v>2.981137075019999</v>
       </c>
       <c r="S6">
-        <v>0.02674207320125534</v>
+        <v>0.002638869912085856</v>
       </c>
       <c r="T6">
-        <v>0.04013193454198716</v>
+        <v>0.004256180661808521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.761635</v>
       </c>
       <c r="I7">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J7">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6236346666666667</v>
+        <v>0.7166333333333333</v>
       </c>
       <c r="N7">
-        <v>1.870904</v>
+        <v>2.1499</v>
       </c>
       <c r="O7">
-        <v>0.31591202707223</v>
+        <v>0.3473413739331278</v>
       </c>
       <c r="P7">
-        <v>0.3439287576880111</v>
+        <v>0.3934369468751236</v>
       </c>
       <c r="Q7">
-        <v>0.5740837742266667</v>
+        <v>0.6596932318333334</v>
       </c>
       <c r="R7">
-        <v>5.16675396804</v>
+        <v>5.937239086500001</v>
       </c>
       <c r="S7">
-        <v>0.00721817081355159</v>
+        <v>0.005255579059919563</v>
       </c>
       <c r="T7">
-        <v>0.01083233735927162</v>
+        <v>0.008476618668843151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.761635</v>
       </c>
       <c r="I8">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J8">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.331041</v>
       </c>
       <c r="O8">
-        <v>0.05589802221493893</v>
+        <v>0.05348352749811459</v>
       </c>
       <c r="P8">
-        <v>0.0608553511424407</v>
+        <v>0.06058131091236234</v>
       </c>
       <c r="Q8">
         <v>0.101579379115</v>
@@ -948,10 +948,10 @@
         <v>0.9142144120350001</v>
       </c>
       <c r="S8">
-        <v>0.001277195668130985</v>
+        <v>0.0008092525920158298</v>
       </c>
       <c r="T8">
-        <v>0.001916692567737647</v>
+        <v>0.001305227369064843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.761635</v>
       </c>
       <c r="I9">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J9">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.307547</v>
+        <v>0.4249756666666666</v>
       </c>
       <c r="N9">
-        <v>0.922641</v>
+        <v>1.274927</v>
       </c>
       <c r="O9">
-        <v>0.1557928084872069</v>
+        <v>0.2059792994299459</v>
       </c>
       <c r="P9">
-        <v>0.1696093294589269</v>
+        <v>0.2333147524855392</v>
       </c>
       <c r="Q9">
-        <v>0.283110853115</v>
+        <v>0.3912092250716667</v>
       </c>
       <c r="R9">
-        <v>2.547997678035</v>
+        <v>3.520883025645</v>
       </c>
       <c r="S9">
-        <v>0.003559659040541927</v>
+        <v>0.003116647120389818</v>
       </c>
       <c r="T9">
-        <v>0.005341994337227204</v>
+        <v>0.005026777994144933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.761635</v>
       </c>
       <c r="I10">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J10">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.48243</v>
+        <v>0.7251799999999999</v>
       </c>
       <c r="N10">
-        <v>0.9648600000000001</v>
+        <v>1.45036</v>
       </c>
       <c r="O10">
-        <v>0.2443825646112082</v>
+        <v>0.3514838144315907</v>
       </c>
       <c r="P10">
-        <v>0.1773704589561273</v>
+        <v>0.2654194196333802</v>
       </c>
       <c r="Q10">
-        <v>0.4440985243500001</v>
+        <v>0.6675608231</v>
       </c>
       <c r="R10">
-        <v>2.6645911461</v>
+        <v>4.0053649386</v>
       </c>
       <c r="S10">
-        <v>0.005583817468317498</v>
+        <v>0.005318257811069076</v>
       </c>
       <c r="T10">
-        <v>0.005586437906202998</v>
+        <v>0.005718474651166728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.761635</v>
       </c>
       <c r="I11">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J11">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4501183333333333</v>
+        <v>0.08605999999999998</v>
       </c>
       <c r="N11">
-        <v>1.350355</v>
+        <v>0.25818</v>
       </c>
       <c r="O11">
-        <v>0.2280145776144159</v>
+        <v>0.04171198470722123</v>
       </c>
       <c r="P11">
-        <v>0.2482361027544942</v>
+        <v>0.04724757009359477</v>
       </c>
       <c r="Q11">
-        <v>0.4143541811583334</v>
+        <v>0.07922210269999999</v>
       </c>
       <c r="R11">
-        <v>3.729187630425</v>
+        <v>0.7129989242999999</v>
       </c>
       <c r="S11">
-        <v>0.005209830674868116</v>
+        <v>0.0006311388444532457</v>
       </c>
       <c r="T11">
-        <v>0.007818413405914586</v>
+        <v>0.001017951257231464</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H12">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I12">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J12">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6236346666666667</v>
+        <v>0.7166333333333333</v>
       </c>
       <c r="N12">
-        <v>1.870904</v>
+        <v>2.1499</v>
       </c>
       <c r="O12">
-        <v>0.31591202707223</v>
+        <v>0.3473413739331278</v>
       </c>
       <c r="P12">
-        <v>0.3439287576880111</v>
+        <v>0.3934369468751236</v>
       </c>
       <c r="Q12">
-        <v>0.4520862819511111</v>
+        <v>0.5590303751555555</v>
       </c>
       <c r="R12">
-        <v>4.06877653756</v>
+        <v>5.031273376400001</v>
       </c>
       <c r="S12">
-        <v>0.005684250543367795</v>
+        <v>0.004453628128579598</v>
       </c>
       <c r="T12">
-        <v>0.008530377170457478</v>
+        <v>0.007183168002686386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H13">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I13">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J13">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.331041</v>
       </c>
       <c r="O13">
-        <v>0.05589802221493893</v>
+        <v>0.05348352749811459</v>
       </c>
       <c r="P13">
-        <v>0.0608553511424407</v>
+        <v>0.06058131091236234</v>
       </c>
       <c r="Q13">
-        <v>0.07999293115166667</v>
+        <v>0.08607934063066668</v>
       </c>
       <c r="R13">
-        <v>0.719936380365</v>
+        <v>0.7747140656760001</v>
       </c>
       <c r="S13">
-        <v>0.001005781153991342</v>
+        <v>0.0006857684121648072</v>
       </c>
       <c r="T13">
-        <v>0.001509379737755339</v>
+        <v>0.001106062197673056</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H14">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I14">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J14">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.307547</v>
+        <v>0.4249756666666666</v>
       </c>
       <c r="N14">
-        <v>0.922641</v>
+        <v>1.274927</v>
       </c>
       <c r="O14">
-        <v>0.1557928084872069</v>
+        <v>0.2059792994299459</v>
       </c>
       <c r="P14">
-        <v>0.1696093294589269</v>
+        <v>0.2333147524855392</v>
       </c>
       <c r="Q14">
-        <v>0.2229474838183333</v>
+        <v>0.3315144514191111</v>
       </c>
       <c r="R14">
-        <v>2.006527354365</v>
+        <v>2.983630062772</v>
       </c>
       <c r="S14">
-        <v>0.002803202412087101</v>
+        <v>0.002641076677559701</v>
       </c>
       <c r="T14">
-        <v>0.004206776896584784</v>
+        <v>0.004259739909838106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H15">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I15">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J15">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.48243</v>
+        <v>0.7251799999999999</v>
       </c>
       <c r="N15">
-        <v>0.9648600000000001</v>
+        <v>1.45036</v>
       </c>
       <c r="O15">
-        <v>0.2443825646112082</v>
+        <v>0.3514838144315907</v>
       </c>
       <c r="P15">
-        <v>0.1773704589561273</v>
+        <v>0.2654194196333802</v>
       </c>
       <c r="Q15">
-        <v>0.34972395965</v>
+        <v>0.5656974474933333</v>
       </c>
       <c r="R15">
-        <v>2.0983437579</v>
+        <v>3.394184684959999</v>
       </c>
       <c r="S15">
-        <v>0.004397210636628483</v>
+        <v>0.004506742703776948</v>
       </c>
       <c r="T15">
-        <v>0.004399274210054393</v>
+        <v>0.004845890294607295</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H16">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I16">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J16">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4501183333333333</v>
+        <v>0.08605999999999998</v>
       </c>
       <c r="N16">
-        <v>1.350355</v>
+        <v>0.25818</v>
       </c>
       <c r="O16">
-        <v>0.2280145776144159</v>
+        <v>0.04171198470722123</v>
       </c>
       <c r="P16">
-        <v>0.2482361027544942</v>
+        <v>0.04724757009359477</v>
       </c>
       <c r="Q16">
-        <v>0.3263005323972222</v>
+        <v>0.06713357005333333</v>
       </c>
       <c r="R16">
-        <v>2.936704791575</v>
+        <v>0.6042021304799999</v>
       </c>
       <c r="S16">
-        <v>0.004102699092251349</v>
+        <v>0.0005348331132781435</v>
       </c>
       <c r="T16">
-        <v>0.006156936680884272</v>
+        <v>0.0008626216637674175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H17">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I17">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J17">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6236346666666667</v>
+        <v>0.7166333333333333</v>
       </c>
       <c r="N17">
-        <v>1.870904</v>
+        <v>2.1499</v>
       </c>
       <c r="O17">
-        <v>0.31591202707223</v>
+        <v>0.3473413739331278</v>
       </c>
       <c r="P17">
-        <v>0.3439287576880111</v>
+        <v>0.3934369468751236</v>
       </c>
       <c r="Q17">
-        <v>20.69461950159333</v>
+        <v>38.93969038403333</v>
       </c>
       <c r="R17">
-        <v>124.16771700956</v>
+        <v>233.6381423042</v>
       </c>
       <c r="S17">
-        <v>0.260201220083565</v>
+        <v>0.3102208898116757</v>
       </c>
       <c r="T17">
-        <v>0.2603233302955891</v>
+        <v>0.333566058222711</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H18">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I18">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J18">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.331041</v>
       </c>
       <c r="O18">
-        <v>0.05589802221493893</v>
+        <v>0.05348352749811459</v>
       </c>
       <c r="P18">
-        <v>0.0608553511424407</v>
+        <v>0.06058131091236234</v>
       </c>
       <c r="Q18">
-        <v>3.6617418822275</v>
+        <v>5.995922621713</v>
       </c>
       <c r="R18">
-        <v>21.970451293365</v>
+        <v>35.975535730278</v>
       </c>
       <c r="S18">
-        <v>0.04604045536151691</v>
+        <v>0.04776772574731242</v>
       </c>
       <c r="T18">
-        <v>0.04606206175430814</v>
+        <v>0.05136240824229241</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H19">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I19">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J19">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.307547</v>
+        <v>0.4249756666666666</v>
       </c>
       <c r="N19">
-        <v>0.922641</v>
+        <v>1.274927</v>
       </c>
       <c r="O19">
-        <v>0.1557928084872069</v>
+        <v>0.2059792994299459</v>
       </c>
       <c r="P19">
-        <v>0.1696093294589269</v>
+        <v>0.2333147524855392</v>
       </c>
       <c r="Q19">
-        <v>10.2056035112275</v>
+        <v>23.09189387517766</v>
       </c>
       <c r="R19">
-        <v>61.23362106736499</v>
+        <v>138.551363251066</v>
       </c>
       <c r="S19">
-        <v>0.1283188842928983</v>
+        <v>0.1839662255848785</v>
       </c>
       <c r="T19">
-        <v>0.1283791032502216</v>
+        <v>0.1978103046242645</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H20">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I20">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J20">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.48243</v>
+        <v>0.7251799999999999</v>
       </c>
       <c r="N20">
-        <v>0.9648600000000001</v>
+        <v>1.45036</v>
       </c>
       <c r="O20">
-        <v>0.2443825646112082</v>
+        <v>0.3514838144315907</v>
       </c>
       <c r="P20">
-        <v>0.1773704589561273</v>
+        <v>0.2654194196333802</v>
       </c>
       <c r="Q20">
-        <v>16.008900434475</v>
+        <v>39.40409043122</v>
       </c>
       <c r="R20">
-        <v>64.0356017379</v>
+        <v>157.61636172488</v>
       </c>
       <c r="S20">
-        <v>0.2012859151590583</v>
+        <v>0.3139206263644323</v>
       </c>
       <c r="T20">
-        <v>0.134253584614177</v>
+        <v>0.2250294749541332</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H21">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I21">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J21">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.4501183333333333</v>
+        <v>0.08605999999999998</v>
       </c>
       <c r="N21">
-        <v>1.350355</v>
+        <v>0.25818</v>
       </c>
       <c r="O21">
-        <v>0.2280145776144159</v>
+        <v>0.04171198470722123</v>
       </c>
       <c r="P21">
-        <v>0.2482361027544942</v>
+        <v>0.04724757009359477</v>
       </c>
       <c r="Q21">
-        <v>14.93667388442917</v>
+        <v>4.676240412739999</v>
       </c>
       <c r="R21">
-        <v>89.62004330657498</v>
+        <v>28.05744247644</v>
       </c>
       <c r="S21">
-        <v>0.1878044082143939</v>
+        <v>0.03725421151289755</v>
       </c>
       <c r="T21">
-        <v>0.1878925432204433</v>
+        <v>0.04005771659702288</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H22">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I22">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J22">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6236346666666667</v>
+        <v>0.7166333333333333</v>
       </c>
       <c r="N22">
-        <v>1.870904</v>
+        <v>2.1499</v>
       </c>
       <c r="O22">
-        <v>0.31591202707223</v>
+        <v>0.3473413739331278</v>
       </c>
       <c r="P22">
-        <v>0.3439287576880111</v>
+        <v>0.3934369468751236</v>
       </c>
       <c r="Q22">
-        <v>0.4579118612506667</v>
+        <v>0.6824716612111111</v>
       </c>
       <c r="R22">
-        <v>4.121206751256</v>
+        <v>6.142244950900001</v>
       </c>
       <c r="S22">
-        <v>0.005757497738916436</v>
+        <v>0.005437048007422652</v>
       </c>
       <c r="T22">
-        <v>0.008640299525206107</v>
+        <v>0.008769306315757465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H23">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I23">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J23">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.331041</v>
       </c>
       <c r="O23">
-        <v>0.05589802221493893</v>
+        <v>0.05348352749811459</v>
       </c>
       <c r="P23">
-        <v>0.0608553511424407</v>
+        <v>0.06058131091236234</v>
       </c>
       <c r="Q23">
-        <v>0.08102371926100001</v>
+        <v>0.1050867952923333</v>
       </c>
       <c r="R23">
-        <v>0.7292134733490001</v>
+        <v>0.9457811576310001</v>
       </c>
       <c r="S23">
-        <v>0.001018741639864277</v>
+        <v>0.0008371951297386866</v>
       </c>
       <c r="T23">
-        <v>0.001528829589932864</v>
+        <v>0.001350295330980356</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H24">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I24">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J24">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.307547</v>
+        <v>0.4249756666666666</v>
       </c>
       <c r="N24">
-        <v>0.922641</v>
+        <v>1.274927</v>
       </c>
       <c r="O24">
-        <v>0.1557928084872069</v>
+        <v>0.2059792994299459</v>
       </c>
       <c r="P24">
-        <v>0.1696093294589269</v>
+        <v>0.2333147524855392</v>
       </c>
       <c r="Q24">
-        <v>0.225820382861</v>
+        <v>0.4047172182952222</v>
       </c>
       <c r="R24">
-        <v>2.032383445749</v>
+        <v>3.642454964657</v>
       </c>
       <c r="S24">
-        <v>0.002839324450282644</v>
+        <v>0.003224261270272729</v>
       </c>
       <c r="T24">
-        <v>0.004260985381524487</v>
+        <v>0.005200346710651525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H25">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I25">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J25">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.48243</v>
+        <v>0.7251799999999999</v>
       </c>
       <c r="N25">
-        <v>0.9648600000000001</v>
+        <v>1.45036</v>
       </c>
       <c r="O25">
-        <v>0.2443825646112082</v>
+        <v>0.3514838144315907</v>
       </c>
       <c r="P25">
-        <v>0.1773704589561273</v>
+        <v>0.2654194196333802</v>
       </c>
       <c r="Q25">
-        <v>0.35423049909</v>
+        <v>0.6906109111266666</v>
       </c>
       <c r="R25">
-        <v>2.12538299454</v>
+        <v>4.14366546676</v>
       </c>
       <c r="S25">
-        <v>0.004453873048834343</v>
+        <v>0.005501890981937893</v>
       </c>
       <c r="T25">
-        <v>0.004455963213446743</v>
+        <v>0.00591592683758407</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H26">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I26">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J26">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.4501183333333333</v>
+        <v>0.08605999999999998</v>
       </c>
       <c r="N26">
-        <v>1.350355</v>
+        <v>0.25818</v>
       </c>
       <c r="O26">
-        <v>0.2280145776144159</v>
+        <v>0.04171198470722123</v>
       </c>
       <c r="P26">
-        <v>0.2482361027544942</v>
+        <v>0.04724757009359477</v>
       </c>
       <c r="Q26">
-        <v>0.3305052377883334</v>
+        <v>0.08195754848666666</v>
       </c>
       <c r="R26">
-        <v>2.974547140095</v>
+        <v>0.7376179363799999</v>
       </c>
       <c r="S26">
-        <v>0.004155566431647217</v>
+        <v>0.0006529313245064328</v>
       </c>
       <c r="T26">
-        <v>0.006236274905264884</v>
+        <v>0.001053099913764483</v>
       </c>
     </row>
   </sheetData>
